--- a/Mesures.xlsx
+++ b/Mesures.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\IMTA-CD-Video_Compression_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F58CAAF-8624-440C-9B9D-4220E8D5E3D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40049703-E12E-4054-BF3D-91E340823362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Performance" sheetId="1" r:id="rId1"/>
+    <sheet name="Performance compression image" sheetId="2" r:id="rId1"/>
+    <sheet name="Performance Motion vs Non Motio" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Nombre de Frames</t>
   </si>
@@ -51,6 +52,15 @@
   </si>
   <si>
     <t>hours</t>
+  </si>
+  <si>
+    <t>Temps écoulé (s)</t>
+  </si>
+  <si>
+    <t>Qualité (%)</t>
+  </si>
+  <si>
+    <t>PSNR</t>
   </si>
 </sst>
 </file>
@@ -89,10 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,9 +144,966 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Performance compression image'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Performance compression image'!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1661319999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.419835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5631010000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7186490000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9260710000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0306229999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2227480000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6204900000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.203767</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE76-4B1B-BAD1-2D873C846340}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="196402064"/>
+        <c:axId val="190957552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="196402064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Qualité de l'image Q (en %)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190957552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190957552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Temps</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> écoulé (en sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196402064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$A$2</c:f>
+              <c:f>'Performance compression image'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PSNR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Performance compression image'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Performance compression image'!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>26.3904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.917100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.574200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.760999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.746600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.757599999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.122100000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.203800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.235300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8E2-43BE-A62C-A832B7238580}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="127615536"/>
+        <c:axId val="1797953488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="127615536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Qualité de l'image Q (en %)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1797953488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1797953488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>PSNR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="127615536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance Motion vs Non Motio'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -158,7 +1126,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Performance!$B$1:$S$1</c:f>
+              <c:f>'Performance Motion vs Non Motio'!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -221,7 +1189,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$B$2:$S$2</c:f>
+              <c:f>'Performance Motion vs Non Motio'!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -294,7 +1262,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$A$3</c:f>
+              <c:f>'Performance Motion vs Non Motio'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -320,7 +1288,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Performance!$B$1:$S$1</c:f>
+              <c:f>'Performance Motion vs Non Motio'!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -383,7 +1351,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$B$3:$S$3</c:f>
+              <c:f>'Performance Motion vs Non Motio'!$B$3:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
@@ -808,6 +1776,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1324,7 +2372,1118 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780AE668-A39F-4C14-8FB6-E18D1A51CE71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0131985-68C4-4840-873D-85B27AF25DED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1627,10 +3786,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB7A3A-6D1B-451F-A27B-B64853245357}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>40</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>60</v>
+      </c>
+      <c r="H1">
+        <v>70</v>
+      </c>
+      <c r="I1">
+        <v>80</v>
+      </c>
+      <c r="J1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.1661319999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.419835</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.5631010000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.7186490000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.9260710000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.0306229999999998</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.2227480000000002</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.6204900000000002</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3.203767</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>26.3904</v>
+      </c>
+      <c r="C3" s="3">
+        <v>28.917100000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>30.574200000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <v>31.760999999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>32.746600000000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>33.757599999999996</v>
+      </c>
+      <c r="H3" s="3">
+        <v>35.122100000000003</v>
+      </c>
+      <c r="I3" s="3">
+        <v>37.203800000000001</v>
+      </c>
+      <c r="J3" s="3">
+        <v>41.235300000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>

--- a/Mesures.xlsx
+++ b/Mesures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\IMTA-CD-Video_Compression_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40049703-E12E-4054-BF3D-91E340823362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF0ACB6-5C33-4139-8B94-905371A72503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,7 +230,7 @@
           </c:trendline>
           <c:trendline>
             <c:spPr>
-              <a:ln w="22225" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -714,6 +714,34 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'Performance compression image'!$B$1:$J$1</c:f>
@@ -3789,8 +3817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB7A3A-6D1B-451F-A27B-B64853245357}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Mesures.xlsx
+++ b/Mesures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\IMTA-CD-Video_Compression_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF0ACB6-5C33-4139-8B94-905371A72503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C61B1C8-B6B1-4D45-92A9-4E83C2EECC2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance compression image" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nombre de Frames</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>PSNR</t>
+  </si>
+  <si>
+    <t>Taux de Compression</t>
   </si>
 </sst>
 </file>
@@ -1107,6 +1110,501 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance compression image'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Taux de Compression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Performance compression image'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Performance compression image'!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16.851099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.946199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7533999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5101000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6172000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9353999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1178999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2066999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0417999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-86AE-43A3-85B6-2D64E74CC124}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="127615536"/>
+        <c:axId val="1797953488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="127615536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Qualité de l'image Q (en %)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1797953488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1797953488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Taux de Compression</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="127615536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1884,6 +2382,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2917,6 +3455,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3508,6 +4562,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2919E5AE-221C-44DB-A039-9A9636E0EC29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3515,16 +4607,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2065020</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3815,10 +4907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB7A3A-6D1B-451F-A27B-B64853245357}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3926,6 +5018,38 @@
         <v>41.235300000000002</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>16.851099999999999</v>
+      </c>
+      <c r="C4">
+        <v>10.946199999999999</v>
+      </c>
+      <c r="D4">
+        <v>8.7533999999999992</v>
+      </c>
+      <c r="E4">
+        <v>7.5101000000000004</v>
+      </c>
+      <c r="F4">
+        <v>6.6172000000000004</v>
+      </c>
+      <c r="G4">
+        <v>5.9353999999999996</v>
+      </c>
+      <c r="H4">
+        <v>5.1178999999999997</v>
+      </c>
+      <c r="I4">
+        <v>4.2066999999999997</v>
+      </c>
+      <c r="J4">
+        <v>3.0417999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3936,7 +5060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>

--- a/Mesures.xlsx
+++ b/Mesures.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\IMTA-CD-Video_Compression_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C61B1C8-B6B1-4D45-92A9-4E83C2EECC2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A6AC58-4569-4B48-9648-D1E4C8B3D912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Performance compression image" sheetId="2" r:id="rId1"/>
-    <sheet name="Performance Motion vs Non Motio" sheetId="1" r:id="rId2"/>
+    <sheet name="Performance c. image (Q1)" sheetId="2" r:id="rId1"/>
+    <sheet name="Perf. c. video @Nframe (Q2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Performance Motion vs Non Motio" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Nombre de Frames</t>
   </si>
@@ -64,6 +65,33 @@
   </si>
   <si>
     <t>Taux de Compression</t>
+  </si>
+  <si>
+    <t>Nframe</t>
+  </si>
+  <si>
+    <t>Temps écoulé Q2 (s)</t>
+  </si>
+  <si>
+    <t>Temps écoulé avec codage prédictif sans estimation de mouvement (s)</t>
+  </si>
+  <si>
+    <t>Temps écoulé avec codage prédictif avec estimation de mouvement (s)</t>
+  </si>
+  <si>
+    <t>PSNR Q2</t>
+  </si>
+  <si>
+    <t>PSNR avec codage prédictif sans estimation de mouvement</t>
+  </si>
+  <si>
+    <t>PNSR avec codage prédictif avec estimation de mouvement</t>
+  </si>
+  <si>
+    <t>Taux de Compression avec codage prédictif avec estimation de mouvement</t>
+  </si>
+  <si>
+    <t>Taux de Compression avec codage prédictif sans estimation de mouvement</t>
   </si>
 </sst>
 </file>
@@ -102,11 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,7 +276,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'Performance compression image'!$B$1:$J$1</c:f>
+              <c:f>'Performance c. image (Q1)'!$B$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -283,7 +312,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Performance compression image'!$B$2:$J$2</c:f>
+              <c:f>'Performance c. image (Q1)'!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
@@ -638,7 +667,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance compression image'!$A$3</c:f>
+              <c:f>'Performance c. image (Q1)'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -747,7 +776,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'Performance compression image'!$B$1:$J$1</c:f>
+              <c:f>'Performance c. image (Q1)'!$B$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -783,7 +812,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Performance compression image'!$B$3:$J$3</c:f>
+              <c:f>'Performance c. image (Q1)'!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1134,7 +1163,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance compression image'!$A$4</c:f>
+              <c:f>'Performance c. image (Q1)'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1243,7 +1272,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'Performance compression image'!$B$1:$J$1</c:f>
+              <c:f>'Performance c. image (Q1)'!$B$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1279,7 +1308,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Performance compression image'!$B$4:$J$4</c:f>
+              <c:f>'Performance c. image (Q1)'!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1605,6 +1634,595 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps écoulé Q2 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>18.961110999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.433767000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.844829</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275.76395500000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>374.48422499999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>457.92696999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>552.52417500000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D6E2-4FCA-8BE8-2B66761B10F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps écoulé avec codage prédictif sans estimation de mouvement (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.9161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.131093999999997</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>106.926756</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D6E2-4FCA-8BE8-2B66761B10F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps écoulé avec codage prédictif avec estimation de mouvement (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14.950006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.997130999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D6E2-4FCA-8BE8-2B66761B10F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="192241935"/>
+        <c:axId val="185427055"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="192241935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Nombre de frames</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="185427055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="185427055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Temps</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> écoulé</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192241935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2422,6 +3040,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3971,6 +4629,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4604,6 +5778,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C96C35-9414-4D36-8FA3-6A4F282A53A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4909,8 +6124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB7A3A-6D1B-451F-A27B-B64853245357}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5057,11 +6272,238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460C20A8-74DF-4832-AE7B-1CAE17E0A3C1}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="63.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2">
+        <v>250</v>
+      </c>
+      <c r="H2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18.961110999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>90.433767000000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>181.844829</v>
+      </c>
+      <c r="E3" s="1">
+        <v>275.76395500000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>374.48422499999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>457.92696999999998</v>
+      </c>
+      <c r="H3" s="1">
+        <v>552.52417500000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>10.9161</v>
+      </c>
+      <c r="C4">
+        <v>52.131093999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>106.926756</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>14.950006</v>
+      </c>
+      <c r="C5" s="1">
+        <v>67.997130999999996</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>32.831299999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>32.835500000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>32.69</v>
+      </c>
+      <c r="E6" s="1">
+        <v>32.905299999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>32.802100000000003</v>
+      </c>
+      <c r="G6" s="1">
+        <v>32.622</v>
+      </c>
+      <c r="H6" s="1">
+        <v>32.869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>32.505800000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>32.835500000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>32.076599999999999</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>32.509300000000003</v>
+      </c>
+      <c r="C8" s="1">
+        <v>32.835500000000003</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.6386000000000003</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.6818</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.7004000000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6.7474999999999996</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6.7348999999999997</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6.7244999999999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6.7403000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20.091999999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>22.874199999999998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>21.718599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20.651900000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>23.414300000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Mesures.xlsx
+++ b/Mesures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\IMTA-CD-Video_Compression_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A6AC58-4569-4B48-9648-D1E4C8B3D912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC9D202-9166-4738-A2A1-63D8C9463EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Nombre de Frames</t>
   </si>
@@ -93,6 +93,9 @@
   <si>
     <t>Taux de Compression avec codage prédictif sans estimation de mouvement</t>
   </si>
+  <si>
+    <t>Taux de Compression Q2</t>
+  </si>
 </sst>
 </file>
 
@@ -110,15 +113,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -126,16 +147,160 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1670,7 +1835,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1683,7 +1848,7 @@
             <c:numRef>
               <c:f>'Perf. c. video @Nframe (Q2)'!$B$2:$H$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -1713,7 +1878,7 @@
             <c:numRef>
               <c:f>'Perf. c. video @Nframe (Q2)'!$B$3:$H$3</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>18.961110999999999</c:v>
@@ -1763,8 +1928,11 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1776,7 +1944,7 @@
             <c:numRef>
               <c:f>'Perf. c. video @Nframe (Q2)'!$B$2:$H$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -1806,7 +1974,7 @@
             <c:numRef>
               <c:f>'Perf. c. video @Nframe (Q2)'!$B$4:$H$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10.9161</c:v>
@@ -1814,8 +1982,20 @@
                 <c:pt idx="1">
                   <c:v>52.131093999999997</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.000">
+                <c:pt idx="2">
                   <c:v>106.926756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160.432849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>212.26233300000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267.744821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>349.73039799999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,8 +2024,11 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1857,7 +2040,7 @@
             <c:numRef>
               <c:f>'Perf. c. video @Nframe (Q2)'!$B$2:$H$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -1887,13 +2070,28 @@
             <c:numRef>
               <c:f>'Perf. c. video @Nframe (Q2)'!$B$5:$H$5</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>14.950006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>67.997130999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140.111909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199.780812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>267.40594599999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>338.98033500000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>406.099875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1979,7 +2177,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2069,7 +2267,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="es-ES" baseline="0"/>
-                  <a:t> écoulé</a:t>
+                  <a:t> écoulé (en s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="es-ES"/>
               </a:p>
@@ -2104,7 +2302,626 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192241935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PSNR Q2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32.831299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.835500000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.905299999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.802100000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.622</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C9F5-4CF2-A6F1-C82B88D71667}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PSNR avec codage prédictif sans estimation de mouvement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32.505800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.835500000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.076599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.409199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.9587</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.789000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C9F5-4CF2-A6F1-C82B88D71667}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PNSR avec codage prédictif avec estimation de mouvement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32.509300000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.835500000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.160899999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.454999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.354199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.398700000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C9F5-4CF2-A6F1-C82B88D71667}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="192241935"/>
+        <c:axId val="185427055"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="192241935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Nombre de frames</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="185427055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="185427055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="30.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>PSNR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2219,10 +3036,628 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Taux de Compression Q2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.6386000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7004000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7474999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7348999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7244999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7403000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A2F7-48AF-9832-5E97AE399BCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Taux de Compression avec codage prédictif sans estimation de mouvement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20.091999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.874199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.718599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.560099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.809699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.834</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.764099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A2F7-48AF-9832-5E97AE399BCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Taux de Compression avec codage prédictif avec estimation de mouvement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Perf. c. video @Nframe (Q2)'!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20.651900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.414300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.517499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.088100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.0947</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.108599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.346299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A2F7-48AF-9832-5E97AE399BCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="192241935"/>
+        <c:axId val="185427055"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="192241935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Nombre de frames</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="185427055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="185427055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Taux de compression</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192241935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3080,6 +4515,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5145,6 +6660,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5781,16 +8328,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5815,10 +8362,688 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221FFDB1-EA92-44C2-B8CC-3597D95E9DF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D46062-7FF4-4D0A-AFC5-6F3A370A7252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.68619</cdr:x>
+      <cdr:y>0.74321</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.86053</cdr:x>
+      <cdr:y>0.83951</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{429983D5-DFB8-4945-8F18-8E4F1AD81739}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3749040" y="2293620"/>
+              <a:ext cx="952500" cy="297180"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1200" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑄</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1200" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> = 50%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="1200"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{429983D5-DFB8-4945-8F18-8E4F1AD81739}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3749040" y="2293620"/>
+              <a:ext cx="952500" cy="297180"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="es-ES" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑄 = 50%</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="1200"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.63936</cdr:x>
+      <cdr:y>0.74979</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.81591</cdr:x>
+      <cdr:y>0.84609</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A34096-0955-4FD0-BB08-EEB658B76634}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3449320" y="2313940"/>
+              <a:ext cx="952500" cy="297180"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1200" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑄</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1200" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> = 50%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="1200"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A34096-0955-4FD0-BB08-EEB658B76634}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3449320" y="2313940"/>
+              <a:ext cx="952500" cy="297180"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑄 = 50%</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="1200"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.70433</cdr:x>
+      <cdr:y>0.74239</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.88089</cdr:x>
+      <cdr:y>0.83868</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A34096-0955-4FD0-BB08-EEB658B76634}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3799840" y="2291080"/>
+              <a:ext cx="952500" cy="297180"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1200" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑄</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1200" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> = 50%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="1200"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A34096-0955-4FD0-BB08-EEB658B76634}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3799840" y="2291080"/>
+              <a:ext cx="952500" cy="297180"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑄 = 50%</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="1200"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6273,222 +9498,420 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460C20A8-74DF-4832-AE7B-1CAE17E0A3C1}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="26">
         <v>50</v>
       </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28">
+        <v>10</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28">
+        <v>90</v>
+      </c>
+      <c r="L1" s="27"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="29">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="29">
         <v>50</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="29">
         <v>100</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="29">
         <v>150</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="29">
         <v>200</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="29">
         <v>250</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="30">
         <v>300</v>
       </c>
+      <c r="I2" s="31">
+        <v>100</v>
+      </c>
+      <c r="J2" s="30">
+        <v>200</v>
+      </c>
+      <c r="K2" s="31">
+        <v>100</v>
+      </c>
+      <c r="L2" s="30">
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="11">
         <v>18.961110999999999</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="11">
         <v>90.433767000000003</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="11">
         <v>181.844829</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="11">
         <v>275.76395500000001</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="11">
         <v>374.48422499999998</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="11">
         <v>457.92696999999998</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="12">
         <v>552.52417500000001</v>
       </c>
+      <c r="I3" s="13">
+        <v>140.95721</v>
+      </c>
+      <c r="J3" s="12">
+        <v>228.17373499999999</v>
+      </c>
+      <c r="K3" s="13">
+        <v>296.94156400000003</v>
+      </c>
+      <c r="L3" s="12">
+        <v>590.36727499999995</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="14">
         <v>10.9161</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="14">
         <v>52.131093999999997</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="14">
         <v>106.926756</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="E4" s="14">
+        <v>160.432849</v>
+      </c>
+      <c r="F4" s="14">
+        <v>212.26233300000001</v>
+      </c>
+      <c r="G4" s="14">
+        <v>267.744821</v>
+      </c>
+      <c r="H4" s="15">
+        <v>349.73039799999998</v>
+      </c>
+      <c r="I4" s="16">
+        <v>105.894734</v>
+      </c>
+      <c r="J4" s="15">
+        <v>176.604443</v>
+      </c>
+      <c r="K4" s="16">
+        <v>152.13755800000001</v>
+      </c>
+      <c r="L4" s="15">
+        <v>307.88560000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="17">
         <v>14.950006</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="17">
         <v>67.997130999999996</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="17">
+        <v>140.111909</v>
+      </c>
+      <c r="E5" s="17">
+        <v>199.780812</v>
+      </c>
+      <c r="F5" s="17">
+        <v>267.40594599999997</v>
+      </c>
+      <c r="G5" s="17">
+        <v>338.98033500000003</v>
+      </c>
+      <c r="H5" s="18">
+        <v>406.099875</v>
+      </c>
+      <c r="I5" s="19">
+        <v>111.086414</v>
+      </c>
+      <c r="J5" s="18">
+        <v>225.35566700000001</v>
+      </c>
+      <c r="K5" s="19">
+        <v>180.95084299999999</v>
+      </c>
+      <c r="L5" s="18">
+        <v>357.94309399999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="11">
         <v>32.831299999999999</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="11">
         <v>32.835500000000003</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="11">
         <v>32.69</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="11">
         <v>32.905299999999997</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="11">
         <v>32.802100000000003</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="11">
         <v>32.622</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="12">
         <v>32.869</v>
       </c>
+      <c r="I6" s="13">
+        <v>26.221900000000002</v>
+      </c>
+      <c r="J6" s="12">
+        <v>26.426600000000001</v>
+      </c>
+      <c r="K6" s="13">
+        <v>41.1997</v>
+      </c>
+      <c r="L6" s="12">
+        <v>41.321199999999997</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="14">
         <v>32.505800000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="14">
         <v>32.835500000000003</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="14">
         <v>32.076599999999999</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="14">
+        <v>32.409199999999998</v>
+      </c>
+      <c r="F7" s="14">
+        <v>32.0794</v>
+      </c>
+      <c r="G7" s="14">
+        <v>30.9587</v>
+      </c>
+      <c r="H7" s="15">
+        <v>30.789000000000001</v>
+      </c>
+      <c r="I7" s="16">
+        <v>25.855599999999999</v>
+      </c>
+      <c r="J7" s="15">
+        <v>25.9528</v>
+      </c>
+      <c r="K7" s="16">
+        <v>40.036799999999999</v>
+      </c>
+      <c r="L7" s="15">
+        <v>39.777999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="17">
         <v>32.509300000000003</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="17">
         <v>32.835500000000003</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="D8" s="17">
+        <v>32.160899999999998</v>
+      </c>
+      <c r="E8" s="17">
+        <v>32.454999999999998</v>
+      </c>
+      <c r="F8" s="17">
+        <v>32.2014</v>
+      </c>
+      <c r="G8" s="17">
+        <v>31.354199999999999</v>
+      </c>
+      <c r="H8" s="18">
+        <v>31.398700000000002</v>
+      </c>
+      <c r="I8" s="19">
+        <v>25.984200000000001</v>
+      </c>
+      <c r="J8" s="18">
+        <v>26.090299999999999</v>
+      </c>
+      <c r="K8" s="19">
+        <v>40.037300000000002</v>
+      </c>
+      <c r="L8" s="18">
+        <v>39.869500000000002</v>
+      </c>
+      <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11">
         <v>6.6386000000000003</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="11">
         <v>6.6818</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="11">
         <v>6.7004000000000001</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="20">
         <v>6.7474999999999996</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="11">
         <v>6.7348999999999997</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="11">
         <v>6.7244999999999999</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="12">
         <v>6.7403000000000004</v>
       </c>
+      <c r="I9" s="13">
+        <v>16.7332</v>
+      </c>
+      <c r="J9" s="12">
+        <v>16.819400000000002</v>
+      </c>
+      <c r="K9" s="13">
+        <v>3.0727000000000002</v>
+      </c>
+      <c r="L9" s="12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="14">
         <v>20.091999999999999</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="14">
         <v>22.874199999999998</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="14">
         <v>21.718599999999999</v>
       </c>
+      <c r="E10" s="21">
+        <v>21.560099999999998</v>
+      </c>
+      <c r="F10" s="14">
+        <v>21.809699999999999</v>
+      </c>
+      <c r="G10" s="14">
+        <v>21.834</v>
+      </c>
+      <c r="H10" s="15">
+        <v>21.764099999999999</v>
+      </c>
+      <c r="I10" s="16">
+        <v>57.0931</v>
+      </c>
+      <c r="J10" s="15">
+        <v>55.734200000000001</v>
+      </c>
+      <c r="K10" s="16">
+        <v>8.4183000000000003</v>
+      </c>
+      <c r="L10" s="15">
+        <v>8.3881999999999994</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="22">
         <v>20.651900000000001</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="22">
         <v>23.414300000000001</v>
+      </c>
+      <c r="D11" s="22">
+        <v>22.517499999999998</v>
+      </c>
+      <c r="E11" s="23">
+        <v>23.088100000000001</v>
+      </c>
+      <c r="F11" s="22">
+        <v>23.0947</v>
+      </c>
+      <c r="G11" s="22">
+        <v>23.108599999999999</v>
+      </c>
+      <c r="H11" s="24">
+        <v>23.346299999999999</v>
+      </c>
+      <c r="I11" s="25">
+        <v>61.418199999999999</v>
+      </c>
+      <c r="J11" s="24">
+        <v>62.049700000000001</v>
+      </c>
+      <c r="K11" s="25">
+        <v>8.5861000000000001</v>
+      </c>
+      <c r="L11" s="24">
+        <v>8.6857000000000006</v>
       </c>
     </row>
   </sheetData>
